--- a/_老師説寫作架構.xlsx
+++ b/_老師説寫作架構.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\_1112\1112_Tax_Law_Seminar\1112_Tax_Law_Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEA706-781C-444D-81B3-C5E5FBE6F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B75A8-F8D0-4E50-8838-EB5AD23DFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34AD3453-95DE-4BD4-A5A7-EAA6A8B45FDB}"/>
   </bookViews>
@@ -295,38 +295,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,91 +662,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -760,15 +760,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
